--- a/doc/ue5_world_level.xlsx
+++ b/doc/ue5_world_level.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD0F72-0749-4C62-8D01-27F3CE793944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="分区模式下的Level" sheetId="2" r:id="rId2"/>
+    <sheet name="ALevelInstance" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>World</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +111,30 @@
   <si>
     <t>开始初始化世界分区了</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALevelInstance</t>
+  </si>
+  <si>
+    <t>ULevelInstanceSubsystem</t>
+  </si>
+  <si>
+    <t>UE5新增加了Levelinstance和LevelInstanceSubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Instancing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +165,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -530,10 +555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A106A2-3403-4EB9-8E44-B9482449CEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -676,4 +701,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>